--- a/src/test/resources/Excel/testdata.xlsx
+++ b/src/test/resources/Excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="13380" windowHeight="4340"/>
+    <workbookView xWindow="1780" yWindow="590" windowWidth="13380" windowHeight="4340"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>This is my first test customer</t>
+  </si>
+  <si>
+    <t>This is my second test customer</t>
+  </si>
+  <si>
+    <t>Eden Hansen</t>
+  </si>
+  <si>
+    <t>Robert Whitely</t>
+  </si>
+  <si>
+    <t>This is my third test customer</t>
+  </si>
+  <si>
+    <t>RW.JohnHancock@gmail.com</t>
+  </si>
+  <si>
+    <t>Edenwillrock@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Andy Roberts</t>
+  </si>
+  <si>
+    <t>andyroberts@gmail.com</t>
+  </si>
+  <si>
+    <t>ValidateCreateCustomerAPIWithValidSecretKey</t>
+  </si>
+  <si>
+    <t>ValidateCreateCustomerAPIWithInValidSecretKey</t>
+  </si>
+  <si>
+    <t>Alan Hansen</t>
+  </si>
+  <si>
+    <t>This is my test customer for second testcase</t>
+  </si>
+  <si>
+    <t>AlanHansen.123@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>ValidateDeleteCustomerAPIWithValidId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cus_JQJ4XMXLX3L5q0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,13 +114,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,14 +423,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>